--- a/data/trans_orig/IP1005-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1005-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{176FB924-F0EC-4DE0-B195-144B3F95DD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3CA4D5F-DCFF-4B18-8226-0D177BFBFBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5385E32B-F178-4518-BA0E-909A56B0F987}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8CA7443-14AD-4638-B01E-B5B9E404DD16}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="145">
   <si>
     <t>Menores según si padecen anomalía/malformación congénita en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -103,37 +103,37 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>3,77%</t>
+    <t>4,46%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,58%</t>
+    <t>4,31%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,66%</t>
+    <t>2,28%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>96,23%</t>
+    <t>95,54%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>96,42%</t>
+    <t>95,69%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,34%</t>
+    <t>97,72%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -148,7 +148,7 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,46%</t>
+    <t>0,43%</t>
   </si>
   <si>
     <t>99,86%</t>
@@ -160,7 +160,7 @@
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,54%</t>
+    <t>99,57%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -169,13 +169,13 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,9%</t>
+    <t>1,91%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>2,74%</t>
+    <t>2,9%</t>
   </si>
   <si>
     <t>0,57%</t>
@@ -184,25 +184,25 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,56%</t>
+    <t>1,55%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,1%</t>
+    <t>98,09%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>97,26%</t>
+    <t>97,1%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>98,44%</t>
+    <t>98,45%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -211,277 +211,265 @@
     <t>0,27%</t>
   </si>
   <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen anomalía/malformación congénita en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen anomalía/malformación congénita en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen anomalía/malformación congénita en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen anomalía/malformación congénita en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>99,16%</t>
   </si>
   <si>
     <t>99,2%</t>
@@ -896,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9157BDEF-DA55-4845-A13D-753E2C766AC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25B8C1A-D41D-4F81-BEC9-9AAF6AD49F10}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1652,7 +1640,7 @@
         <v>58</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>24</v>
@@ -1664,13 +1652,13 @@
         <v>3929</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,10 +1673,10 @@
         <v>720719</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>39</v>
@@ -1700,13 +1688,13 @@
         <v>679073</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>2098</v>
@@ -1715,13 +1703,13 @@
         <v>1399792</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,7 +1765,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1797,7 +1785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEBFF29-3FF5-4FAF-9953-08265A663E06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA3D5E3-DE49-4B50-B6D1-136C917697BB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1814,7 +1802,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2076,7 +2064,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2091,7 +2079,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2124,7 +2112,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -2139,7 +2127,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2231,7 +2219,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2240,13 +2228,13 @@
         <v>694</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2255,13 +2243,13 @@
         <v>2044</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,10 +2264,10 @@
         <v>491053</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -2291,10 +2279,10 @@
         <v>449006</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -2541,7 +2529,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2550,13 +2538,13 @@
         <v>1797</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2565,13 +2553,13 @@
         <v>3148</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2577,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -2601,13 +2589,13 @@
         <v>705131</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>2079</v>
@@ -2619,7 +2607,7 @@
         <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>39</v>
@@ -2678,7 +2666,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F840AF-8859-4844-BB8D-495F0B1E7213}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C84DEEF-9B6A-43E2-BCC8-FB49CB004867}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2715,7 +2703,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2965,7 +2953,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2980,7 +2968,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2995,7 +2983,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,7 +3001,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -3028,7 +3016,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -3043,7 +3031,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -3114,13 +3102,13 @@
         <v>2491</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3129,13 +3117,13 @@
         <v>1715</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3144,13 +3132,13 @@
         <v>4206</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3153,13 @@
         <v>486244</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>711</v>
@@ -3180,13 +3168,13 @@
         <v>470575</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>1402</v>
@@ -3195,13 +3183,13 @@
         <v>956819</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3257,13 @@
         <v>1381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3284,13 +3272,13 @@
         <v>604</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3299,13 +3287,13 @@
         <v>1985</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,10 +3308,10 @@
         <v>186114</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -3335,10 +3323,10 @@
         <v>172099</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -3350,13 +3338,13 @@
         <v>358212</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3412,13 @@
         <v>3872</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3442,10 +3430,10 @@
         <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3454,13 +3442,13 @@
         <v>6191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3463,13 @@
         <v>740972</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H17" s="7">
         <v>1057</v>
@@ -3493,10 +3481,10 @@
         <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>2116</v>
@@ -3505,13 +3493,13 @@
         <v>1443024</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,7 +3555,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1005-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1005-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3CA4D5F-DCFF-4B18-8226-0D177BFBFBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9DE972E-C6AA-4A38-99BE-C71E9C3400F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8CA7443-14AD-4638-B01E-B5B9E404DD16}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{55B9E311-FA86-450B-B8CD-14372FCD8D5D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="145">
   <si>
     <t>Menores según si padecen anomalía/malformación congénita en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,412 +67,412 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen anomalía/malformación congénita en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen anomalía/malformación congénita en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen anomalía/malformación congénita en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen anomalía/malformación congénita en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>99,79%</t>
   </si>
 </sst>
 </file>
@@ -884,8 +884,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25B8C1A-D41D-4F81-BEC9-9AAF6AD49F10}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B3E614-1CE4-468D-BFF6-732B16196775}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1002,10 +1002,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1017,81 +1017,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>700</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1342</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>90225</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="I5" s="7">
+        <v>86145</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>176370</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1100,151 +1104,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>642</v>
+        <v>679</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1342</v>
+        <v>679</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>129</v>
+        <v>628</v>
       </c>
       <c r="D8" s="7">
-        <v>86144</v>
+        <v>416087</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>135</v>
+        <v>718</v>
       </c>
       <c r="I8" s="7">
-        <v>90225</v>
+        <v>476312</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>264</v>
+        <v>1346</v>
       </c>
       <c r="N8" s="7">
-        <v>176370</v>
+        <v>892399</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1253,153 +1259,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1306</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>679</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>679</v>
+        <v>1908</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>718</v>
+        <v>252</v>
       </c>
       <c r="D11" s="7">
-        <v>476312</v>
+        <v>172760</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>628</v>
+        <v>235</v>
       </c>
       <c r="I11" s="7">
-        <v>416087</v>
+        <v>157536</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>1346</v>
+        <v>487</v>
       </c>
       <c r="N11" s="7">
-        <v>892399</v>
+        <v>330297</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1408,153 +1414,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>602</v>
+        <v>1948</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>1306</v>
+        <v>1981</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>1908</v>
+        <v>3929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>235</v>
+        <v>1015</v>
       </c>
       <c r="D14" s="7">
-        <v>157536</v>
+        <v>679073</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
-        <v>252</v>
+        <v>1082</v>
       </c>
       <c r="I14" s="7">
-        <v>172760</v>
+        <v>719993</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M14" s="7">
-        <v>487</v>
+        <v>2097</v>
       </c>
       <c r="N14" s="7">
-        <v>330297</v>
+        <v>1399066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,216 +1569,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1981</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1948</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3929</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1083</v>
-      </c>
-      <c r="D17" s="7">
-        <v>720719</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I17" s="7">
-        <v>679073</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2098</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1399792</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1785,8 +1635,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA3D5E3-DE49-4B50-B6D1-136C917697BB}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C338379B-EFAA-4AD5-816B-4BF4F46E69EB}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1802,7 +1652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1909,26 +1759,28 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1937,62 +1789,64 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I5" s="7">
+        <v>83537</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,151 +1855,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I6" s="7">
+        <v>83537</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1351</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2044</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>650</v>
       </c>
       <c r="D8" s="7">
-        <v>83537</v>
+        <v>449006</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>133</v>
+        <v>703</v>
       </c>
       <c r="I8" s="7">
-        <v>91889</v>
+        <v>491053</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>250</v>
+        <v>1353</v>
       </c>
       <c r="N8" s="7">
-        <v>175425</v>
+        <v>940059</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,54 +2010,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="D9" s="7">
-        <v>83537</v>
+        <v>449700</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>250</v>
+        <v>1356</v>
       </c>
       <c r="N9" s="7">
-        <v>175425</v>
+        <v>942103</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2210,97 +2066,97 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1351</v>
+        <v>1104</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>2044</v>
+        <v>1104</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>703</v>
+        <v>232</v>
       </c>
       <c r="D11" s="7">
-        <v>491053</v>
+        <v>164236</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>650</v>
+        <v>243</v>
       </c>
       <c r="I11" s="7">
-        <v>449006</v>
+        <v>171561</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>1353</v>
+        <v>475</v>
       </c>
       <c r="N11" s="7">
-        <v>940059</v>
+        <v>335797</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,153 +2165,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="I12" s="7">
-        <v>449700</v>
+        <v>171561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>1356</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>942103</v>
+        <v>336901</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1797</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1104</v>
+        <v>1351</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>1104</v>
+        <v>3148</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>243</v>
+        <v>1015</v>
       </c>
       <c r="D14" s="7">
-        <v>171561</v>
+        <v>705131</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>232</v>
+        <v>1063</v>
       </c>
       <c r="I14" s="7">
-        <v>164236</v>
+        <v>746150</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>475</v>
+        <v>2078</v>
       </c>
       <c r="N14" s="7">
-        <v>335797</v>
+        <v>1451281</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,216 +2320,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>165340</v>
+        <v>747501</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2083</v>
       </c>
       <c r="N15" s="7">
-        <v>336901</v>
+        <v>1454429</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1351</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1797</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="7">
-        <v>5</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3148</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1064</v>
-      </c>
-      <c r="D17" s="7">
-        <v>746791</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I17" s="7">
-        <v>705131</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2079</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1451922</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D18" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>70</v>
+      <c r="A16" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2686,8 +2386,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C84DEEF-9B6A-43E2-BCC8-FB49CB004867}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE38059-CC5E-40C8-A68A-67A2997D696F}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2806,86 +2506,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D5" s="7">
+        <v>59378</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I5" s="7">
+        <v>68614</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N5" s="7">
+        <v>127993</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,147 +2606,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1715</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2491</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>4206</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>99</v>
+        <v>711</v>
       </c>
       <c r="D8" s="7">
-        <v>68614</v>
+        <v>470575</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="H8" s="7">
-        <v>89</v>
+        <v>691</v>
       </c>
       <c r="I8" s="7">
-        <v>59378</v>
+        <v>486244</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>188</v>
+        <v>1402</v>
       </c>
       <c r="N8" s="7">
-        <v>127993</v>
+        <v>956819</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,153 +2761,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2491</v>
+        <v>604</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1381</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="7">
         <v>3</v>
       </c>
-      <c r="I10" s="7">
-        <v>1715</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M10" s="7">
-        <v>7</v>
-      </c>
       <c r="N10" s="7">
-        <v>4206</v>
+        <v>1985</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>691</v>
+        <v>257</v>
       </c>
       <c r="D11" s="7">
-        <v>486244</v>
+        <v>172099</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>711</v>
+        <v>269</v>
       </c>
       <c r="I11" s="7">
-        <v>470575</v>
+        <v>186114</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>1402</v>
+        <v>526</v>
       </c>
       <c r="N11" s="7">
-        <v>956819</v>
+        <v>358212</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,153 +2916,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>1381</v>
+        <v>2319</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>604</v>
+        <v>3872</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>1985</v>
+        <v>6191</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>269</v>
+        <v>1057</v>
       </c>
       <c r="D14" s="7">
-        <v>186114</v>
+        <v>702052</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
-        <v>257</v>
+        <v>1059</v>
       </c>
       <c r="I14" s="7">
-        <v>172099</v>
+        <v>740972</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
-        <v>526</v>
+        <v>2116</v>
       </c>
       <c r="N14" s="7">
-        <v>358212</v>
+        <v>1443024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,216 +3071,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>6</v>
-      </c>
-      <c r="D16" s="7">
-        <v>3872</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2319</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M16" s="7">
-        <v>10</v>
-      </c>
-      <c r="N16" s="7">
-        <v>6191</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1059</v>
-      </c>
-      <c r="D17" s="7">
-        <v>740972</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1057</v>
-      </c>
-      <c r="I17" s="7">
-        <v>702052</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2116</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1443024</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>70</v>
+      <c r="A16" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
